--- a/TestData/Notifications Message on KYCee v2.0-Updated.xlsx
+++ b/TestData/Notifications Message on KYCee v2.0-Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intuitiveapps\eclipse-workspace\Kyce\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86B64D8-11D8-4D18-8928-8436EF67810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CB2CF0-4DC1-4467-8021-811327BEFFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F12B355F-AB89-4089-B5F0-13673098306F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="461">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -295,9 +295,6 @@
     <t>Please wait {3 minute/seconds} before requesting another change password request.</t>
   </si>
   <si>
-    <t>Please wait {3 minutes/seconds} before making another change password request.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Change Password Section- Changing password again before the timer ends </t>
   </si>
   <si>
@@ -1168,9 +1165,6 @@
     <t xml:space="preserve"> updating/editing the UTR Number with already used UTR number</t>
   </si>
   <si>
-    <t>UTR already exists.</t>
-  </si>
-  <si>
     <t>Old Messages</t>
   </si>
   <si>
@@ -1411,7 +1405,19 @@
     <t>An account is already registered with the provided Company Name.</t>
   </si>
   <si>
-    <t>You can only change your password 3 times in a day. Please wait 24 hours before changing your password again.</t>
+    <t>Email address was updated successfully.</t>
+  </si>
+  <si>
+    <t>Please wait 3 minutes before making another change password request.</t>
+  </si>
+  <si>
+    <t>Please provide a valid title for your review.</t>
+  </si>
+  <si>
+    <t>Can not place offline order with the same UTR again.</t>
+  </si>
+  <si>
+    <t>You can only change your password 3 times a day. Please wait 24 hours before changing your password again.</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1754,6 +1760,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2091,8 +2101,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2689AB1F-FA1A-49A9-8082-2203550ABAB7}" name="Table1" displayName="Table1" ref="A1:K126" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:K126" xr:uid="{2689AB1F-FA1A-49A9-8082-2203550ABAB7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2689AB1F-FA1A-49A9-8082-2203550ABAB7}" name="Table1" displayName="Table1" ref="A1:K127" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:K127" xr:uid="{2689AB1F-FA1A-49A9-8082-2203550ABAB7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E126">
     <sortCondition ref="A1:A126"/>
   </sortState>
@@ -2412,7 +2422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41698783-7D9C-4ECF-91F3-4D5C31870F21}">
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -2449,19 +2459,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2574,7 +2584,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -2608,7 +2618,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -2708,7 +2718,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -2733,7 +2743,7 @@
         <v>43</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -2758,7 +2768,7 @@
         <v>47</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -2858,7 +2868,7 @@
         <v>51</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -2908,22 +2918,22 @@
         <v>66</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -2978,16 +2988,16 @@
         <v>72</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3138,10 +3148,10 @@
         <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>66</v>
@@ -3170,13 +3180,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>66</v>
@@ -3205,16 +3215,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="20" t="s">
         <v>92</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>93</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>14</v>
@@ -3240,16 +3250,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="E29" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>14</v>
@@ -3275,16 +3285,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>10</v>
@@ -3302,16 +3312,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>10</v>
@@ -3337,16 +3347,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="20" t="s">
         <v>107</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>108</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>10</v>
@@ -3372,16 +3382,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>10</v>
@@ -3405,16 +3415,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="E34" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>10</v>
@@ -3432,16 +3442,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>10</v>
@@ -3459,16 +3469,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="10" t="s">
         <v>120</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>121</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>10</v>
@@ -3488,16 +3498,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="E37" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>10</v>
@@ -3515,16 +3525,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E38" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>10</v>
@@ -3550,16 +3560,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E39" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>10</v>
@@ -3585,16 +3595,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>133</v>
-      </c>
       <c r="E40" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -3608,16 +3618,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="E41" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F41" s="28" t="s">
         <v>10</v>
@@ -3643,16 +3653,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="20" t="s">
         <v>139</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>140</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>10</v>
@@ -3678,16 +3688,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="E43" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>10</v>
@@ -3711,16 +3721,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E44" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>10</v>
@@ -3738,16 +3748,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E45" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>10</v>
@@ -3765,16 +3775,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="E46" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>10</v>
@@ -3792,16 +3802,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="D47" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E47" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
@@ -3815,16 +3825,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="D48" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="E48" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
@@ -3838,16 +3848,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="D49" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="E49" s="32" t="s">
         <v>161</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>162</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
@@ -3861,16 +3871,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="E50" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -3884,16 +3894,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="E51" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>14</v>
@@ -3909,16 +3919,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="E52" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>10</v>
@@ -3940,16 +3950,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="E53" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>10</v>
@@ -3971,16 +3981,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E54" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>10</v>
@@ -4002,14 +4012,14 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>10</v>
@@ -4031,16 +4041,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="E56" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>10</v>
@@ -4062,16 +4072,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="E57" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>14</v>
@@ -4093,16 +4103,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E58" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>10</v>
@@ -4124,16 +4134,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="20" t="s">
         <v>189</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>190</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>10</v>
@@ -4153,25 +4163,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="E60" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
@@ -4181,13 +4191,13 @@
       <c r="A61" s="36"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>377</v>
+        <v>459</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>10</v>
@@ -4203,16 +4213,16 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>196</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>10</v>
@@ -4230,16 +4240,16 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>10</v>
@@ -4257,16 +4267,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E64" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>10</v>
@@ -4284,16 +4294,16 @@
         <v>63</v>
       </c>
       <c r="B65" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="D65" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="E65" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="F65" s="17" t="s">
         <v>10</v>
@@ -4313,16 +4323,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="E66" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>10</v>
@@ -4342,19 +4352,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" s="17" t="s">
@@ -4363,7 +4373,7 @@
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
       <c r="K67" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -4371,16 +4381,16 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="E68" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>14</v>
@@ -4390,7 +4400,7 @@
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
       <c r="K68" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -4398,16 +4408,16 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="E69" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>10</v>
@@ -4427,16 +4437,16 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>10</v>
@@ -4452,16 +4462,16 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E71" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>10</v>
@@ -4481,16 +4491,16 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E72" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F72" s="17" t="s">
         <v>10</v>
@@ -4510,16 +4520,16 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="E73" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F73" s="17" t="s">
         <v>10</v>
@@ -4539,16 +4549,16 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E74" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F74" s="17" t="s">
         <v>10</v>
@@ -4568,16 +4578,16 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="E75" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F75" s="17" t="s">
         <v>10</v>
@@ -4597,16 +4607,16 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="E76" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F76" s="17" t="s">
         <v>10</v>
@@ -4626,16 +4636,16 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="E77" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F77" s="17" t="s">
         <v>10</v>
@@ -4653,16 +4663,16 @@
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="E78" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>10</v>
@@ -4680,16 +4690,16 @@
         <v>77</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="E79" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>10</v>
@@ -4707,16 +4717,16 @@
         <v>78</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="E80" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F80" s="17" t="s">
         <v>10</v>
@@ -4734,16 +4744,16 @@
         <v>79</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="E81" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F81" s="17" t="s">
         <v>10</v>
@@ -4761,16 +4771,16 @@
         <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F82" s="17" t="s">
         <v>10</v>
@@ -4788,16 +4798,16 @@
         <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>14</v>
@@ -4815,16 +4825,16 @@
         <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E84" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F84" s="17" t="s">
         <v>10</v>
@@ -4842,16 +4852,16 @@
         <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="E85" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>10</v>
@@ -4869,16 +4879,16 @@
         <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="E86" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>10</v>
@@ -4899,13 +4909,13 @@
         <v>6</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E87" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>14</v>
@@ -4923,16 +4933,16 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="E88" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F88" s="17" t="s">
         <v>14</v>
@@ -4953,13 +4963,13 @@
         <v>23</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F89" s="17" t="s">
         <v>14</v>
@@ -4977,26 +4987,26 @@
         <v>88</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="E90" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
       <c r="I90" s="17"/>
       <c r="J90" s="17"/>
       <c r="K90" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -5004,16 +5014,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="E91" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F91" s="17" t="s">
         <v>10</v>
@@ -5031,16 +5041,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E92" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F92" s="17" t="s">
         <v>10</v>
@@ -5058,16 +5068,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="E93" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F93" s="17" t="s">
         <v>10</v>
@@ -5085,16 +5095,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="E94" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F94" s="17" t="s">
         <v>10</v>
@@ -5112,16 +5122,16 @@
         <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="E95" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F95" s="17" t="s">
         <v>10</v>
@@ -5139,16 +5149,16 @@
         <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E96" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F96" s="17" t="s">
         <v>10</v>
@@ -5166,16 +5176,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="E97" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F97" s="17" t="s">
         <v>10</v>
@@ -5193,16 +5203,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="E98" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F98" s="17" t="s">
         <v>10</v>
@@ -5220,16 +5230,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="D99" s="17" t="s">
-        <v>294</v>
-      </c>
       <c r="E99" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F99" s="17" t="s">
         <v>10</v>
@@ -5247,16 +5257,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="C100" s="33" t="s">
+      <c r="D100" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D100" s="27" t="s">
-        <v>297</v>
-      </c>
       <c r="E100" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F100" s="17"/>
       <c r="G100" s="17"/>
@@ -5270,16 +5280,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="D101" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="D101" s="34" t="s">
-        <v>300</v>
-      </c>
       <c r="E101" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
@@ -5293,14 +5303,14 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F102" s="17" t="s">
         <v>10</v>
@@ -5318,16 +5328,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="E103" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F103" s="17" t="s">
         <v>10</v>
@@ -5345,16 +5355,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="D104" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F104" s="17" t="s">
         <v>10</v>
@@ -5372,26 +5382,26 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="E105" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F105" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
       <c r="J105" s="17"/>
       <c r="K105" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5399,16 +5409,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="E106" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F106" s="17" t="s">
         <v>14</v>
@@ -5426,16 +5436,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="E107" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F107" s="17" t="s">
         <v>14</v>
@@ -5453,16 +5463,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="E108" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F108" s="17" t="s">
         <v>14</v>
@@ -5480,16 +5490,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C109" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="E109" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F109" s="17" t="s">
         <v>14</v>
@@ -5507,16 +5517,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="20" t="s">
         <v>321</v>
-      </c>
-      <c r="E110" s="20" t="s">
-        <v>322</v>
       </c>
       <c r="F110" s="17" t="s">
         <v>10</v>
@@ -5536,16 +5546,16 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="E111" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F111" s="17" t="s">
         <v>10</v>
@@ -5565,16 +5575,16 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="E112" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F112" s="17" t="s">
         <v>10</v>
@@ -5594,16 +5604,16 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E113" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F113" s="17" t="s">
         <v>10</v>
@@ -5623,16 +5633,16 @@
         <v>112</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="E114" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F114" s="17" t="s">
         <v>10</v>
@@ -5650,16 +5660,16 @@
         <v>113</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="E115" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F115" s="17" t="s">
         <v>10</v>
@@ -5677,16 +5687,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>334</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F116" s="17" t="s">
         <v>10</v>
@@ -5704,16 +5714,16 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="D117" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="E117" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F117" s="17" t="s">
         <v>10</v>
@@ -5731,16 +5741,16 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="E118" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F118" s="17" t="s">
         <v>10</v>
@@ -5758,16 +5768,16 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="E119" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F119" s="17" t="s">
         <v>10</v>
@@ -5785,16 +5795,16 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="D120" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="10" t="s">
         <v>346</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>347</v>
       </c>
       <c r="F120" s="17" t="s">
         <v>10</v>
@@ -5818,10 +5828,10 @@
         <v>80</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F121" s="17" t="s">
         <v>10</v>
@@ -5839,16 +5849,16 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F122" s="17" t="s">
         <v>14</v>
@@ -5866,16 +5876,16 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="D123" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>354</v>
       </c>
       <c r="F123" s="17" t="s">
         <v>10</v>
@@ -5893,26 +5903,26 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="D124" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="E124" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F124" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G124" s="17"/>
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
       <c r="J124" s="17"/>
       <c r="K124" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
@@ -5920,16 +5930,16 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="D125" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="10" t="s">
         <v>360</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>361</v>
       </c>
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
@@ -5943,14 +5953,14 @@
         <v>124</v>
       </c>
       <c r="B126" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C126" s="24" t="s">
         <v>362</v>
-      </c>
-      <c r="C126" s="24" t="s">
-        <v>363</v>
       </c>
       <c r="D126" s="25"/>
       <c r="E126" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F126" s="17"/>
       <c r="G126" s="30"/>
@@ -5958,6 +5968,21 @@
       <c r="I126" s="30"/>
       <c r="J126" s="30"/>
       <c r="K126" s="30"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="41"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="D127" s="30"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
+      <c r="K127" s="30"/>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C131" s="22"/>
@@ -5982,8 +6007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045A7A45-8BA8-4B06-970B-8689B17E922E}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5996,376 +6021,377 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>387</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>388</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="39" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="39" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="39" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="39" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="39" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="39" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="39" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="39" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="39" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="39" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="39" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="39" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="39" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="39" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="39" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="39" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="39" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="39" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="39" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="39" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="39" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="39" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>